--- a/docs/Smart Material Changer 'Amber/Cheat Sheet.xlsx
+++ b/docs/Smart Material Changer 'Amber/Cheat Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\Prod\docs\Smart Material Changer 'Amber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35709A3E-5188-40DF-B135-D4277F954EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074CC21-4D5A-42D9-95F1-FF295C83440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{32D38C57-1544-4EF2-AD00-8AA82FA33385}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{32D38C57-1544-4EF2-AD00-8AA82FA33385}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="2" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>{texture}, {repeats}, {offsets}, {rotation_in_radians}, {color}, {alpha}, {gltf_alpha_mode}, {alpha_mask_cutoff}, {double_sided}</t>
-  </si>
-  <si>
     <t>GN</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PART, "{name}", {matching type}, "{matching text}", {face(es)}</t>
-  </si>
-  <si>
     <t>FULL</t>
   </si>
   <si>
@@ -359,6 +353,43 @@
   </si>
   <si>
     <t>DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>matching type</t>
+  </si>
+  <si>
+    <t>matching text</t>
+  </si>
+  <si>
+    <t>face(es)</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define a unique name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describe the type of match.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The contents for matching.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then number of PRIM(0-7).
+Multiple faces like "0247" in quotes, order doesn't matter.
+Use ALL_SIDES or -1 for all faces.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,7 +400,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="24"/>
         <color theme="0"/>
         <rFont val="阿里妈妈方圆体 VF SemiBold"/>
         <family val="3"/>
@@ -380,40 +411,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>matching type</t>
-  </si>
-  <si>
-    <t>matching text</t>
-  </si>
-  <si>
-    <t>face(es)</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define a unique name.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describe the type of match.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The contents for matching.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Then number of PRIM(0-7).
-Multiple faces like "0247" in quotes, order doesn't matter.
-Use ALL_SIDES or -1 for all faces.</t>
+    <t>PART, "{name}", {matching type}, "{matching text}", {face(s)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{texture}, {repeats}, {offsets}, {rotation_in_radians}, {color}, {alpha}, {gltf_alpha_mode},
+{alpha_mask_cutoff}, {double_sided}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,13 +456,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="阿里妈妈方圆体 VF SemiBold"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="阿里妈妈方圆体 VF SemiBold"/>
@@ -467,7 +463,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="阿里妈妈方圆体 VF SemiBold"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="阿里妈妈方圆体 VF SemiBold"/>
       <family val="3"/>
@@ -475,16 +486,9 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="24"/>
       <color theme="0"/>
       <name val="阿里妈妈方圆体 VF SemiBold"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Microsoft YaHei Mono"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -521,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -530,42 +534,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -576,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,7 +564,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -595,83 +573,71 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,198 +953,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38C6362-F77D-486B-B1EE-F198B8D6D304}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="8.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="15.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="19.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="161.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="33.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="147.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+    <row r="3" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="C5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="29" t="s">
+      <c r="G6" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G9" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="16" t="s">
+    <row r="10" spans="2:7" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="15">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="15">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="17">
-        <v>10</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C12" s="11">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="15">
-        <v>11</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C13" s="13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="17">
-        <v>12</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C14" s="18">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="19">
-        <v>13</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F9:F10"/>
@@ -1189,634 +1157,636 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6FD7D-A4F0-4A92-A06E-541686879085}">
-  <dimension ref="A2:I34"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="111" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="196.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="13">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="13">
         <v>7</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="13">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="13">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="11">
         <v>2</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="13">
         <v>13</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="13">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="13">
         <v>17</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="13">
         <v>2</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>80</v>
+      <c r="F23" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="13">
         <v>19</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="13">
         <v>9</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>48</v>
+      <c r="F25" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11">
+        <v>20</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="C27" s="13">
         <v>21</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="13">
         <v>4</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11">
+        <v>22</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="13">
+        <v>23</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="7">
-        <v>23</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="11">
+        <v>24</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="6">
-        <v>24</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="13">
+        <v>25</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="7">
-        <v>25</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="13">
+        <v>6</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>60</v>
-      </c>
-      <c r="E31" s="7">
-        <v>6</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="11">
+        <v>26</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="6">
-        <v>26</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="13">
+        <v>27</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="7">
-        <v>27</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="11">
+        <v>28</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="11">
+        <v>5</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="6">
-        <v>28</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="6">
-        <v>5</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
@@ -1827,5 +1797,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>